--- a/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E474A-FF9E-495F-BFAE-E071AA6DF26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A805A973-92B9-4464-ABA9-6520A7E31CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="GLD Dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GLD Dictionary'!$A$1:$F$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GLD Dictionary'!$A$1:$F$168</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +62,7 @@
     <author>tc={C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}</author>
   </authors>
   <commentList>
-    <comment ref="B163" authorId="0" shapeId="0" xr:uid="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
+    <comment ref="B164" authorId="0" shapeId="0" xr:uid="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="555">
   <si>
     <t>Module</t>
   </si>
@@ -2059,6 +2059,15 @@
   </si>
   <si>
     <t>String (isced_1977, isced_2011)</t>
+  </si>
+  <si>
+    <t>educat_orig</t>
+  </si>
+  <si>
+    <t>Original education code</t>
+  </si>
+  <si>
+    <t>Code if there is a single original education variable (as is in most cases). If there are two or more variables, leave missing, make a note of it.</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3106,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B163" dT="2021-01-04T14:59:32.96" personId="{AA1C213F-0BE3-45C7-AD62-FE87D2C519B4}" id="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
+  <threadedComment ref="B164" dT="2021-01-04T14:59:32.96" personId="{AA1C213F-0BE3-45C7-AD62-FE87D2C519B4}" id="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
     <text>Makes more sense to me as a categorical 0 / 1 / 2 / 3+ since barely any questionnaire will ask details passed the secondary job, will be the sum of other jobs so we will never know the number.</text>
   </threadedComment>
 </ThreadedComments>
@@ -5233,10 +5242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,48 +6108,48 @@
         <v>541</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="72"/>
       <c r="B55" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>461</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D55" s="17"/>
       <c r="E55" s="33"/>
       <c r="F55" s="17" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="72"/>
+      <c r="B56" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="E56" s="33"/>
+      <c r="F56" s="17" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B57" s="53" t="s">
         <v>518</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C57" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D57" s="54" t="s">
         <v>108</v>
-      </c>
-      <c r="E56" s="55"/>
-      <c r="F56" s="54"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="53" t="s">
-        <v>519</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>526</v>
-      </c>
-      <c r="D57" s="54" t="s">
-        <v>527</v>
       </c>
       <c r="E57" s="55"/>
       <c r="F57" s="54"/>
@@ -6148,13 +6157,13 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="73"/>
       <c r="B58" s="53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>114</v>
+        <v>527</v>
       </c>
       <c r="E58" s="55"/>
       <c r="F58" s="54"/>
@@ -6162,10 +6171,10 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
       <c r="B59" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D59" s="54" t="s">
         <v>114</v>
@@ -6176,722 +6185,722 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="73"/>
       <c r="B60" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>530</v>
-      </c>
-      <c r="D60" s="54"/>
+        <v>529</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>114</v>
+      </c>
       <c r="E60" s="55"/>
       <c r="F60" s="54"/>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="73"/>
       <c r="B61" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="D61" s="54"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="54"/>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="73"/>
+      <c r="B62" s="53" t="s">
         <v>523</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C62" s="53" t="s">
         <v>531</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D62" s="54" t="s">
         <v>533</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="54" t="s">
+      <c r="E62" s="55"/>
+      <c r="F62" s="54" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B63" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C63" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D63" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E63" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="58"/>
-    </row>
-    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" s="60" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F63" s="58"/>
+    </row>
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="72"/>
       <c r="B64" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>516</v>
+        <v>131</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>132</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="61"/>
+        <v>333</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>131</v>
+      </c>
       <c r="F64" s="60" t="s">
-        <v>510</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="59" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D65" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E65" s="61"/>
       <c r="F65" s="60" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
       <c r="B66" s="59" t="s">
-        <v>134</v>
+        <v>509</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>335</v>
+        <v>517</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="E66" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="60"/>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E66" s="61"/>
+      <c r="F66" s="60" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
       <c r="B67" s="59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" s="59" t="s">
-        <v>39</v>
+        <v>335</v>
+      </c>
+      <c r="D67" s="60" t="s">
+        <v>336</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F67" s="60"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
       <c r="B68" s="59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D68" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
       <c r="B69" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F69" s="60"/>
     </row>
-    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="72"/>
       <c r="B70" s="59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E70" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" s="60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F70" s="60"/>
+    </row>
+    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
       <c r="B71" s="59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="D71" s="59" t="s">
-        <v>86</v>
+        <v>341</v>
+      </c>
+      <c r="D71" s="60" t="s">
+        <v>342</v>
       </c>
       <c r="E71" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71" s="60"/>
-    </row>
-    <row r="72" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="72"/>
       <c r="B72" s="59" t="s">
-        <v>443</v>
+        <v>148</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="D72" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="E72" s="61"/>
-      <c r="F72" s="60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E72" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="60"/>
+    </row>
+    <row r="73" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
       <c r="B73" s="59" t="s">
-        <v>150</v>
+        <v>443</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D73" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" s="60"/>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="E73" s="61"/>
+      <c r="F73" s="60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D74" s="60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E74" s="61" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F74" s="60"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="72"/>
       <c r="B75" s="59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D75" s="59" t="s">
-        <v>86</v>
+        <v>346</v>
+      </c>
+      <c r="D75" s="60" t="s">
+        <v>347</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="72"/>
       <c r="B76" s="59" t="s">
-        <v>442</v>
+        <v>158</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>444</v>
+        <v>348</v>
       </c>
       <c r="D76" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="E76" s="61"/>
-      <c r="F76" s="60" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E76" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="60"/>
+    </row>
+    <row r="77" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="72"/>
       <c r="B77" s="59" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="D77" s="60" t="s">
-        <v>539</v>
+        <v>444</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>464</v>
       </c>
       <c r="E77" s="61"/>
       <c r="F77" s="60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="72"/>
       <c r="B78" s="59" t="s">
-        <v>160</v>
+        <v>497</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="E78" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="F78" s="60"/>
-    </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="E78" s="61"/>
+      <c r="F78" s="60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="72"/>
       <c r="B79" s="59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="D79" s="59" t="s">
-        <v>39</v>
+        <v>349</v>
+      </c>
+      <c r="D79" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="E79" s="61" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F79" s="60"/>
     </row>
-    <row r="80" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="72"/>
       <c r="B80" s="59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C80" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="D80" s="60" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E80" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="72"/>
       <c r="B81" s="59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C81" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="D81" s="59" t="s">
-        <v>39</v>
+        <v>352</v>
+      </c>
+      <c r="D81" s="60" t="s">
+        <v>353</v>
       </c>
       <c r="E81" s="61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="72"/>
       <c r="B82" s="59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" s="60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D82" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="61"/>
-      <c r="F82" s="60" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" s="60"/>
+    </row>
+    <row r="83" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="72"/>
       <c r="B83" s="59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D83" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E83" s="61"/>
-      <c r="F83" s="60"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="60" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="72"/>
       <c r="B84" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="59" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>357</v>
       </c>
       <c r="D84" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="61" t="s">
-        <v>175</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E84" s="61"/>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="72"/>
       <c r="B85" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>358</v>
+        <v>175</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>176</v>
       </c>
       <c r="D85" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E85" s="61" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="72"/>
       <c r="B86" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="59" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>358</v>
       </c>
       <c r="D86" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E86" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="72"/>
       <c r="B87" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>359</v>
+        <v>180</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="D87" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E87" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F87" s="60"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="72"/>
       <c r="B88" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C88" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D88" s="59" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E88" s="61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F88" s="60"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="72"/>
       <c r="B89" s="59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D89" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="72"/>
       <c r="B90" s="59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="D90" s="60" t="s">
-        <v>340</v>
+        <v>361</v>
+      </c>
+      <c r="D90" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E90" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F90" s="60"/>
     </row>
-    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="72"/>
       <c r="B91" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D91" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="E91" s="61"/>
+        <v>340</v>
+      </c>
+      <c r="E91" s="61" t="s">
+        <v>188</v>
+      </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="72"/>
       <c r="B92" s="59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="D92" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="61" t="s">
-        <v>193</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D92" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="E92" s="61"/>
       <c r="F92" s="60"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="72"/>
       <c r="B93" s="59" t="s">
-        <v>447</v>
+        <v>193</v>
       </c>
       <c r="C93" s="60" t="s">
-        <v>448</v>
+        <v>364</v>
       </c>
       <c r="D93" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="E93" s="61"/>
-      <c r="F93" s="59" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E93" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93" s="60"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="72"/>
       <c r="B94" s="59" t="s">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="C94" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D94" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="E94" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="60"/>
-    </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="D94" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="E94" s="61"/>
+      <c r="F94" s="59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A95" s="72"/>
       <c r="B95" s="59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D95" s="60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E95" s="61" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F95" s="60"/>
     </row>
     <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="72"/>
       <c r="B96" s="59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="D96" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E96" s="61"/>
+        <v>366</v>
+      </c>
+      <c r="D96" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="E96" s="61" t="s">
+        <v>200</v>
+      </c>
       <c r="F96" s="60"/>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="72"/>
       <c r="B97" s="59" t="s">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="C97" s="60" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="D97" s="59" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
       <c r="E97" s="61"/>
-      <c r="F97" s="60" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F97" s="60"/>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="72"/>
       <c r="B98" s="59" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="C98" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="D98" s="60" t="s">
-        <v>500</v>
+        <v>452</v>
+      </c>
+      <c r="D98" s="59" t="s">
+        <v>446</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="59" t="s">
-        <v>203</v>
+        <v>501</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>368</v>
+        <v>498</v>
       </c>
       <c r="D99" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="E99" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="F99" s="60"/>
-    </row>
-    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="E99" s="61"/>
+      <c r="F99" s="60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A100" s="72"/>
       <c r="B100" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="D100" s="59" t="s">
-        <v>39</v>
+        <v>368</v>
+      </c>
+      <c r="D100" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="E100" s="61" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F100" s="60"/>
     </row>
-    <row r="101" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="72"/>
       <c r="B101" s="59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C101" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D101" s="60" t="s">
-        <v>353</v>
+        <v>369</v>
+      </c>
+      <c r="D101" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E101" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F101" s="60"/>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="72"/>
       <c r="B102" s="59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C102" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="D102" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="61"/>
+        <v>370</v>
+      </c>
+      <c r="D102" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="E102" s="61" t="s">
+        <v>208</v>
+      </c>
       <c r="F102" s="60"/>
     </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="72"/>
       <c r="B103" s="59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C103" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D103" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E103" s="61"/>
-      <c r="F103" s="60" t="s">
-        <v>373</v>
-      </c>
+      <c r="F103" s="60"/>
     </row>
     <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="72"/>
       <c r="B104" s="59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C104" s="60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D104" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E104" s="61"/>
-      <c r="F104" s="60"/>
+      <c r="F104" s="60" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="72"/>
       <c r="B105" s="59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C105" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D105" s="59" t="s">
         <v>39</v>
@@ -6902,10 +6911,10 @@
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="72"/>
       <c r="B106" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C106" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D106" s="59" t="s">
         <v>39</v>
@@ -6916,40 +6925,40 @@
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="72"/>
       <c r="B107" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="59" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="C107" s="60" t="s">
+        <v>376</v>
       </c>
       <c r="D107" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E107" s="61"/>
-      <c r="F107" s="60" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="60"/>
+    </row>
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="72"/>
       <c r="B108" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C108" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D108" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E108" s="61"/>
-      <c r="F108" s="60"/>
+      <c r="F108" s="60" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="72"/>
       <c r="B109" s="59" t="s">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="C109" s="59" t="s">
-        <v>467</v>
+        <v>223</v>
       </c>
       <c r="D109" s="59" t="s">
         <v>39</v>
@@ -6957,13 +6966,13 @@
       <c r="E109" s="61"/>
       <c r="F109" s="60"/>
     </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="72"/>
       <c r="B110" s="59" t="s">
-        <v>472</v>
-      </c>
-      <c r="C110" s="60" t="s">
-        <v>422</v>
+        <v>459</v>
+      </c>
+      <c r="C110" s="59" t="s">
+        <v>467</v>
       </c>
       <c r="D110" s="59" t="s">
         <v>39</v>
@@ -6974,10 +6983,10 @@
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="72"/>
       <c r="B111" s="59" t="s">
-        <v>228</v>
+        <v>472</v>
       </c>
       <c r="C111" s="60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D111" s="59" t="s">
         <v>39</v>
@@ -6988,10 +6997,10 @@
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="72"/>
       <c r="B112" s="59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D112" s="59" t="s">
         <v>39</v>
@@ -6999,80 +7008,80 @@
       <c r="E112" s="61"/>
       <c r="F112" s="60"/>
     </row>
-    <row r="113" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="72"/>
       <c r="B113" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="C113" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="D113" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E113" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="F113" s="60" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="C113" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="D113" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="61"/>
+      <c r="F113" s="60"/>
+    </row>
+    <row r="114" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="72"/>
       <c r="B114" s="59" t="s">
-        <v>512</v>
-      </c>
-      <c r="C114" s="60" t="s">
-        <v>514</v>
+        <v>232</v>
+      </c>
+      <c r="C114" s="59" t="s">
+        <v>233</v>
       </c>
       <c r="D114" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="E114" s="61"/>
+        <v>378</v>
+      </c>
+      <c r="E114" s="61" t="s">
+        <v>232</v>
+      </c>
       <c r="F114" s="60" t="s">
-        <v>510</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="72"/>
       <c r="B115" s="59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C115" s="60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D115" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E115" s="61"/>
       <c r="F115" s="60" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="72"/>
       <c r="B116" s="59" t="s">
-        <v>234</v>
+        <v>513</v>
       </c>
       <c r="C116" s="60" t="s">
-        <v>380</v>
+        <v>515</v>
       </c>
       <c r="D116" s="60" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="E116" s="61"/>
-      <c r="F116" s="60"/>
-    </row>
-    <row r="117" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F116" s="60" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="72"/>
       <c r="B117" s="59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C117" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="D117" s="59" t="s">
-        <v>39</v>
+        <v>380</v>
+      </c>
+      <c r="D117" s="60" t="s">
+        <v>336</v>
       </c>
       <c r="E117" s="61"/>
       <c r="F117" s="60"/>
@@ -7080,10 +7089,10 @@
     <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="72"/>
       <c r="B118" s="59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D118" s="59" t="s">
         <v>39</v>
@@ -7091,46 +7100,46 @@
       <c r="E118" s="61"/>
       <c r="F118" s="60"/>
     </row>
-    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="72"/>
       <c r="B119" s="59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C119" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="D119" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="E119" s="61" t="s">
-        <v>240</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D119" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="61"/>
       <c r="F119" s="60"/>
     </row>
-    <row r="120" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="72"/>
       <c r="B120" s="59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C120" s="60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D120" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="E120" s="61"/>
+        <v>340</v>
+      </c>
+      <c r="E120" s="61" t="s">
+        <v>240</v>
+      </c>
       <c r="F120" s="60"/>
     </row>
-    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="72"/>
       <c r="B121" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C121" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D121" s="59" t="s">
-        <v>86</v>
+        <v>384</v>
+      </c>
+      <c r="D121" s="60" t="s">
+        <v>342</v>
       </c>
       <c r="E121" s="61"/>
       <c r="F121" s="60"/>
@@ -7138,57 +7147,57 @@
     <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="72"/>
       <c r="B122" s="59" t="s">
-        <v>449</v>
+        <v>244</v>
       </c>
       <c r="C122" s="60" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D122" s="59" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
       <c r="E122" s="61"/>
-      <c r="F122" s="59" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F122" s="60"/>
+    </row>
+    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="72"/>
       <c r="B123" s="59" t="s">
-        <v>246</v>
+        <v>449</v>
       </c>
       <c r="C123" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="D123" s="60" t="s">
-        <v>345</v>
+        <v>450</v>
+      </c>
+      <c r="D123" s="59" t="s">
+        <v>446</v>
       </c>
       <c r="E123" s="61"/>
-      <c r="F123" s="60"/>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F123" s="59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="72"/>
       <c r="B124" s="59" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C124" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D124" s="60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E124" s="61"/>
       <c r="F124" s="60"/>
     </row>
-    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="72"/>
       <c r="B125" s="59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C125" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="D125" s="59" t="s">
-        <v>86</v>
+        <v>387</v>
+      </c>
+      <c r="D125" s="60" t="s">
+        <v>347</v>
       </c>
       <c r="E125" s="61"/>
       <c r="F125" s="60"/>
@@ -7196,98 +7205,98 @@
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="72"/>
       <c r="B126" s="59" t="s">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="C126" s="60" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="D126" s="59" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
       <c r="E126" s="61"/>
-      <c r="F126" s="60" t="s">
-        <v>466</v>
-      </c>
+      <c r="F126" s="60"/>
     </row>
     <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="72"/>
       <c r="B127" s="59" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="C127" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="D127" s="60" t="s">
-        <v>500</v>
+        <v>454</v>
+      </c>
+      <c r="D127" s="59" t="s">
+        <v>446</v>
       </c>
       <c r="E127" s="61"/>
       <c r="F127" s="60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="72"/>
       <c r="B128" s="59" t="s">
-        <v>252</v>
+        <v>502</v>
       </c>
       <c r="C128" s="60" t="s">
-        <v>389</v>
+        <v>498</v>
       </c>
       <c r="D128" s="60" t="s">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E128" s="61"/>
-      <c r="F128" s="60"/>
-    </row>
-    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F128" s="60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A129" s="72"/>
       <c r="B129" s="59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C129" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="D129" s="59" t="s">
-        <v>39</v>
+        <v>389</v>
+      </c>
+      <c r="D129" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="E129" s="61"/>
       <c r="F129" s="60"/>
     </row>
-    <row r="130" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="72"/>
       <c r="B130" s="59" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C130" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="D130" s="60" t="s">
-        <v>353</v>
+        <v>390</v>
+      </c>
+      <c r="D130" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E130" s="61"/>
       <c r="F130" s="60"/>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="72"/>
       <c r="B131" s="59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C131" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="D131" s="59" t="s">
-        <v>261</v>
+        <v>391</v>
+      </c>
+      <c r="D131" s="60" t="s">
+        <v>353</v>
       </c>
       <c r="E131" s="61"/>
       <c r="F131" s="60"/>
     </row>
-    <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="72"/>
       <c r="B132" s="59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C132" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D132" s="59" t="s">
         <v>261</v>
@@ -7295,13 +7304,13 @@
       <c r="E132" s="61"/>
       <c r="F132" s="60"/>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="72"/>
       <c r="B133" s="59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C133" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D133" s="59" t="s">
         <v>261</v>
@@ -7309,27 +7318,27 @@
       <c r="E133" s="61"/>
       <c r="F133" s="60"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="72"/>
       <c r="B134" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="C134" s="59" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="C134" s="60" t="s">
+        <v>394</v>
       </c>
       <c r="D134" s="59" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E134" s="61"/>
       <c r="F134" s="60"/>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="72"/>
       <c r="B135" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="C135" s="60" t="s">
-        <v>395</v>
+        <v>266</v>
+      </c>
+      <c r="C135" s="59" t="s">
+        <v>267</v>
       </c>
       <c r="D135" s="59" t="s">
         <v>108</v>
@@ -7340,10 +7349,10 @@
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="72"/>
       <c r="B136" s="59" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C136" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D136" s="59" t="s">
         <v>108</v>
@@ -7354,10 +7363,10 @@
     <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="72"/>
       <c r="B137" s="59" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C137" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D137" s="59" t="s">
         <v>108</v>
@@ -7368,13 +7377,13 @@
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="72"/>
       <c r="B138" s="59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C138" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D138" s="59" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E138" s="61"/>
       <c r="F138" s="60"/>
@@ -7382,10 +7391,10 @@
     <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="72"/>
       <c r="B139" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C139" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D139" s="59" t="s">
         <v>39</v>
@@ -7393,46 +7402,46 @@
       <c r="E139" s="61"/>
       <c r="F139" s="60"/>
     </row>
-    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="72"/>
       <c r="B140" s="59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C140" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="D140" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="E140" s="61" t="s">
-        <v>278</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D140" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="61"/>
       <c r="F140" s="60"/>
     </row>
-    <row r="141" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="72"/>
       <c r="B141" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C141" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D141" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="E141" s="61"/>
+        <v>340</v>
+      </c>
+      <c r="E141" s="61" t="s">
+        <v>278</v>
+      </c>
       <c r="F141" s="60"/>
     </row>
-    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="72"/>
       <c r="B142" s="59" t="s">
-        <v>473</v>
+        <v>280</v>
       </c>
       <c r="C142" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="D142" s="59" t="s">
-        <v>86</v>
+        <v>401</v>
+      </c>
+      <c r="D142" s="60" t="s">
+        <v>342</v>
       </c>
       <c r="E142" s="61"/>
       <c r="F142" s="60"/>
@@ -7440,57 +7449,57 @@
     <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="72"/>
       <c r="B143" s="59" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="C143" s="60" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="D143" s="59" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
       <c r="E143" s="61"/>
-      <c r="F143" s="59" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F143" s="60"/>
+    </row>
+    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="72"/>
       <c r="B144" s="59" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="C144" s="60" t="s">
-        <v>403</v>
-      </c>
-      <c r="D144" s="60" t="s">
-        <v>345</v>
+        <v>456</v>
+      </c>
+      <c r="D144" s="59" t="s">
+        <v>446</v>
       </c>
       <c r="E144" s="61"/>
-      <c r="F144" s="60"/>
-    </row>
-    <row r="145" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F144" s="59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A145" s="72"/>
       <c r="B145" s="59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C145" s="60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D145" s="60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E145" s="61"/>
       <c r="F145" s="60"/>
     </row>
-    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="72"/>
       <c r="B146" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C146" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="D146" s="59" t="s">
-        <v>86</v>
+        <v>404</v>
+      </c>
+      <c r="D146" s="60" t="s">
+        <v>347</v>
       </c>
       <c r="E146" s="61"/>
       <c r="F146" s="60"/>
@@ -7498,138 +7507,138 @@
     <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="72"/>
       <c r="B147" s="59" t="s">
-        <v>457</v>
+        <v>289</v>
       </c>
       <c r="C147" s="60" t="s">
-        <v>458</v>
+        <v>290</v>
       </c>
       <c r="D147" s="59" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
       <c r="E147" s="61"/>
-      <c r="F147" s="60" t="s">
-        <v>466</v>
-      </c>
+      <c r="F147" s="60"/>
     </row>
     <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="72"/>
       <c r="B148" s="59" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="C148" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="D148" s="60" t="s">
-        <v>500</v>
+        <v>458</v>
+      </c>
+      <c r="D148" s="59" t="s">
+        <v>446</v>
       </c>
       <c r="E148" s="61"/>
       <c r="F148" s="60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="72"/>
       <c r="B149" s="59" t="s">
-        <v>291</v>
+        <v>503</v>
       </c>
       <c r="C149" s="60" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="D149" s="60" t="s">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E149" s="61"/>
-      <c r="F149" s="60"/>
-    </row>
-    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F149" s="60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="72"/>
       <c r="B150" s="59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C150" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="D150" s="59" t="s">
-        <v>39</v>
+        <v>405</v>
+      </c>
+      <c r="D150" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="E150" s="61"/>
       <c r="F150" s="60"/>
     </row>
-    <row r="151" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="72"/>
       <c r="B151" s="59" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C151" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="D151" s="60" t="s">
-        <v>353</v>
+        <v>406</v>
+      </c>
+      <c r="D151" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="E151" s="61"/>
       <c r="F151" s="60"/>
     </row>
-    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A152" s="72"/>
       <c r="B152" s="59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C152" s="60" t="s">
-        <v>408</v>
-      </c>
-      <c r="D152" s="59" t="s">
-        <v>300</v>
+        <v>407</v>
+      </c>
+      <c r="D152" s="60" t="s">
+        <v>353</v>
       </c>
       <c r="E152" s="61"/>
       <c r="F152" s="60"/>
     </row>
-    <row r="153" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="72"/>
       <c r="B153" s="59" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C153" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D153" s="59" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="E153" s="61"/>
       <c r="F153" s="60"/>
     </row>
-    <row r="154" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="72"/>
       <c r="B154" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C154" s="60" t="s">
-        <v>410</v>
-      </c>
-      <c r="D154" s="59"/>
+        <v>409</v>
+      </c>
+      <c r="D154" s="59" t="s">
+        <v>261</v>
+      </c>
       <c r="E154" s="61"/>
       <c r="F154" s="60"/>
     </row>
     <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="72"/>
       <c r="B155" s="59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C155" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="D155" s="59" t="s">
-        <v>39</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D155" s="59"/>
       <c r="E155" s="61"/>
       <c r="F155" s="60"/>
     </row>
     <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="72"/>
       <c r="B156" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C156" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D156" s="59" t="s">
         <v>39</v>
@@ -7637,13 +7646,13 @@
       <c r="E156" s="61"/>
       <c r="F156" s="60"/>
     </row>
-    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="72"/>
       <c r="B157" s="59" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C157" s="60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D157" s="59" t="s">
         <v>39</v>
@@ -7654,10 +7663,10 @@
     <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="72"/>
       <c r="B158" s="59" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C158" s="60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D158" s="59" t="s">
         <v>39</v>
@@ -7665,13 +7674,13 @@
       <c r="E158" s="61"/>
       <c r="F158" s="60"/>
     </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="72"/>
       <c r="B159" s="59" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="C159" s="60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D159" s="59" t="s">
         <v>39</v>
@@ -7682,10 +7691,10 @@
     <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="72"/>
       <c r="B160" s="59" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="C160" s="60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D160" s="59" t="s">
         <v>39</v>
@@ -7696,10 +7705,10 @@
     <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="72"/>
       <c r="B161" s="59" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C161" s="60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D161" s="59" t="s">
         <v>39</v>
@@ -7710,10 +7719,10 @@
     <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="72"/>
       <c r="B162" s="59" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C162" s="60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D162" s="59" t="s">
         <v>39</v>
@@ -7721,93 +7730,107 @@
       <c r="E162" s="61"/>
       <c r="F162" s="60"/>
     </row>
-    <row r="163" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="72"/>
       <c r="B163" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="C163" s="59" t="s">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="C163" s="60" t="s">
+        <v>418</v>
       </c>
       <c r="D163" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E163" s="61" t="s">
+      <c r="E163" s="61"/>
+      <c r="F163" s="60"/>
+    </row>
+    <row r="164" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A164" s="72"/>
+      <c r="B164" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="F163" s="60" t="s">
+      <c r="C164" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="D164" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E164" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="F164" s="60" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="72"/>
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="59"/>
-      <c r="E164" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="F164" s="60" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="72"/>
-      <c r="B165" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C165" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="D165" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E165" s="61"/>
-      <c r="F165" s="60"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="F165" s="60" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="72"/>
       <c r="B166" s="59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C166" s="60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D166" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E166" s="61"/>
-      <c r="F166" s="60" t="s">
+      <c r="F166" s="60"/>
+    </row>
+    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="72"/>
+      <c r="B167" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="D167" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E167" s="61"/>
+      <c r="F167" s="60" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="72"/>
-      <c r="B167" s="62" t="s">
+    <row r="168" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="72"/>
+      <c r="B168" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="C167" s="63" t="s">
+      <c r="C168" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="D167" s="62" t="s">
+      <c r="D168" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E167" s="64"/>
-      <c r="F167" s="63" t="s">
+      <c r="E168" s="64"/>
+      <c r="F168" s="63" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F167" xr:uid="{EA55B166-B49F-4ECB-9A75-5F440FA2BF9F}"/>
+  <autoFilter ref="A1:F168" xr:uid="{EA55B166-B49F-4ECB-9A75-5F440FA2BF9F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A62:A167"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A63:A168"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="F33:F38"/>
     <mergeCell ref="A27:A38"/>
     <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7817,10 +7840,47 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8062,70 +8122,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8147,17 +8160,27 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A805A973-92B9-4464-ABA9-6520A7E31CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95035432-0F7E-486E-A8F1-445E1F2DE530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
@@ -1744,17 +1744,6 @@
     <t>See industrycat_isic</t>
   </si>
   <si>
-    <t>Four digit integer code</t>
-  </si>
-  <si>
-    <t>ISCO-08 codes are
-8 Plant and machine operators, and assemblers
-   81 Stationary plant machine operators
-      811 Mining and mineral processing plant operators
-         8111 Miners and quarriers
-Given the level of detail available, this are to be coded as 8000, 8100, 8110, and 8111 respectively.</t>
-  </si>
-  <si>
     <t>See occup_isco</t>
   </si>
   <si>
@@ -2068,6 +2057,38 @@
   </si>
   <si>
     <t>Code if there is a single original education variable (as is in most cases). If there are two or more variables, leave missing, make a note of it.</t>
+  </si>
+  <si>
+    <t>ISCO-08 codes are
+8 Plant and machine operators, and assemblers
+   81 Stationary plant machine operators
+      811 Mining and mineral processing plant operators
+         8111 Miners and quarriers
+Given the level of detail available, this are to be coded as 8000, 8100, 8110, and 8111 respectively.
+Note army occupations are coded 0###.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of length four</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5244,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,29 +5354,29 @@
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>468</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>470</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
@@ -5363,13 +5384,13 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
@@ -5377,13 +5398,13 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -5858,13 +5879,13 @@
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
+        <v>484</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>488</v>
-      </c>
       <c r="C39" s="35" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>114</v>
@@ -5875,26 +5896,26 @@
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="78"/>
       <c r="B40" s="48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="78"/>
       <c r="B41" s="38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>108</v>
@@ -5905,45 +5926,45 @@
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="38" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>114</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="41" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>536</v>
-      </c>
       <c r="D43" s="39" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="41" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
       <c r="B44" s="38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="41"/>
@@ -5951,13 +5972,13 @@
     <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="78"/>
       <c r="B45" s="38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="41"/>
@@ -5965,13 +5986,13 @@
     <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="78"/>
       <c r="B46" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="D46" s="47" t="s">
         <v>494</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>496</v>
       </c>
       <c r="E46" s="50"/>
       <c r="F46" s="51"/>
@@ -5979,13 +6000,13 @@
     <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="78"/>
       <c r="B47" s="42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E47" s="44"/>
       <c r="F47" s="45"/>
@@ -5995,16 +6016,16 @@
         <v>105</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>114</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F48" s="26"/>
     </row>
@@ -6099,27 +6120,27 @@
         <v>124</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>126</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="72"/>
       <c r="B55" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="33"/>
       <c r="F55" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6128,25 +6149,25 @@
         <v>460</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>461</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D57" s="54" t="s">
         <v>108</v>
@@ -6157,13 +6178,13 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="73"/>
       <c r="B58" s="53" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E58" s="55"/>
       <c r="F58" s="54"/>
@@ -6171,10 +6192,10 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
       <c r="B59" s="53" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D59" s="54" t="s">
         <v>114</v>
@@ -6185,10 +6206,10 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="73"/>
       <c r="B60" s="53" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D60" s="54" t="s">
         <v>114</v>
@@ -6199,10 +6220,10 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="73"/>
       <c r="B61" s="53" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D61" s="54"/>
       <c r="E61" s="55"/>
@@ -6211,17 +6232,17 @@
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="73"/>
       <c r="B62" s="53" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C62" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="D62" s="54" t="s">
         <v>531</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>533</v>
       </c>
       <c r="E62" s="55"/>
       <c r="F62" s="54" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,33 +6284,33 @@
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="59" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D65" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E65" s="61"/>
       <c r="F65" s="60" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
       <c r="B66" s="59" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D66" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="61"/>
       <c r="F66" s="60" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6399,7 +6420,7 @@
         <v>445</v>
       </c>
       <c r="D73" s="59" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E73" s="61"/>
       <c r="F73" s="60" t="s">
@@ -6454,7 +6475,7 @@
       </c>
       <c r="F76" s="60"/>
     </row>
-    <row r="77" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="72"/>
       <c r="B77" s="59" t="s">
         <v>442</v>
@@ -6463,27 +6484,27 @@
         <v>444</v>
       </c>
       <c r="D77" s="59" t="s">
-        <v>464</v>
+        <v>554</v>
       </c>
       <c r="E77" s="61"/>
       <c r="F77" s="60" t="s">
-        <v>465</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="72"/>
       <c r="B78" s="59" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E78" s="61"/>
       <c r="F78" s="60" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -6793,27 +6814,27 @@
         <v>452</v>
       </c>
       <c r="D98" s="59" t="s">
-        <v>446</v>
+        <v>554</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="60" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="59" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C99" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="D99" s="60" t="s">
         <v>498</v>
-      </c>
-      <c r="D99" s="60" t="s">
-        <v>500</v>
       </c>
       <c r="E99" s="61"/>
       <c r="F99" s="60" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -6972,7 +6993,7 @@
         <v>459</v>
       </c>
       <c r="C110" s="59" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D110" s="59" t="s">
         <v>39</v>
@@ -6983,7 +7004,7 @@
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="72"/>
       <c r="B111" s="59" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C111" s="60" t="s">
         <v>422</v>
@@ -7043,33 +7064,33 @@
     <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="72"/>
       <c r="B115" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="C115" s="60" t="s">
         <v>512</v>
-      </c>
-      <c r="C115" s="60" t="s">
-        <v>514</v>
       </c>
       <c r="D115" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E115" s="61"/>
       <c r="F115" s="60" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="72"/>
       <c r="B116" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="C116" s="60" t="s">
         <v>513</v>
-      </c>
-      <c r="C116" s="60" t="s">
-        <v>515</v>
       </c>
       <c r="D116" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E116" s="61"/>
       <c r="F116" s="60" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7225,27 +7246,27 @@
         <v>454</v>
       </c>
       <c r="D127" s="59" t="s">
-        <v>446</v>
+        <v>554</v>
       </c>
       <c r="E127" s="61"/>
       <c r="F127" s="60" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="72"/>
       <c r="B128" s="59" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C128" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="D128" s="60" t="s">
         <v>498</v>
-      </c>
-      <c r="D128" s="60" t="s">
-        <v>500</v>
       </c>
       <c r="E128" s="61"/>
       <c r="F128" s="60" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7449,7 +7470,7 @@
     <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="72"/>
       <c r="B143" s="59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C143" s="60" t="s">
         <v>402</v>
@@ -7527,27 +7548,27 @@
         <v>458</v>
       </c>
       <c r="D148" s="59" t="s">
-        <v>446</v>
+        <v>554</v>
       </c>
       <c r="E148" s="61"/>
       <c r="F148" s="60" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="72"/>
       <c r="B149" s="59" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C149" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="D149" s="60" t="s">
         <v>498</v>
-      </c>
-      <c r="D149" s="60" t="s">
-        <v>500</v>
       </c>
       <c r="E149" s="61"/>
       <c r="F149" s="60" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -7839,48 +7860,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8122,44 +8101,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8177,6 +8166,38 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
   <ds:schemaRefs>

--- a/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/aquinonesnunura_worldbank_org/Documents/Documents/GitHub/gld/Support/Guides and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95035432-0F7E-486E-A8F1-445E1F2DE530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19590" windowHeight="10710" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Example" sheetId="1" r:id="rId1"/>
@@ -5265,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7860,6 +7860,53 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8101,54 +8148,47 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8164,44 +8204,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/aquinonesnunura_worldbank_org/Documents/Documents/GitHub/gld/Support/Guides and Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95035432-0F7E-486E-A8F1-445E1F2DE530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C90198-535E-43AC-AD6E-C21818A7245E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19590" windowHeight="10710" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Example" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="554">
   <si>
     <t>Module</t>
   </si>
@@ -1855,10 +1855,6 @@
     <t>https://ilostat.ilo.org/resources/concepts-and-definitions/classification-occupation/</t>
   </si>
   <si>
-    <t>1 = High; 2 = Medium;
-3 = Low; 4 = Armed Forces; 5 = Not elswhere classified</t>
-  </si>
-  <si>
     <t>occup_skill_2</t>
   </si>
   <si>
@@ -1985,10 +1981,6 @@
    24 Lower secondary general
       242 Sufficient partial level completion, without direct access to upper secondary education
 Should be coded as 200, 240, and 242 respectively.</t>
-  </si>
-  <si>
-    <t>1 = High; 2 = Medium;
-3 = Low; 4 = Armed Forces; 5 = Not elsewhere classified</t>
   </si>
   <si>
     <t>1=no education; 
@@ -2089,6 +2081,9 @@
       </rPr>
       <t xml:space="preserve"> of length four</t>
     </r>
+  </si>
+  <si>
+    <t>1 "Low skill" 2 "Medium skill" 3 "High skill"</t>
   </si>
 </sst>
 </file>
@@ -5265,8 +5260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,13 +5365,13 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
@@ -5384,13 +5379,13 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
@@ -5398,13 +5393,13 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -5902,7 +5897,7 @@
         <v>490</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="41" t="s">
@@ -5942,17 +5937,17 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>532</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>533</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5964,7 +5959,7 @@
         <v>479</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="41"/>
@@ -6016,16 +6011,16 @@
         <v>105</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>504</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>505</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>114</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F48" s="26"/>
     </row>
@@ -6120,27 +6115,27 @@
         <v>124</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>126</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="72"/>
       <c r="B55" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="33"/>
       <c r="F55" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6156,18 +6151,18 @@
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C57" s="53" t="s">
         <v>522</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>523</v>
       </c>
       <c r="D57" s="54" t="s">
         <v>108</v>
@@ -6178,13 +6173,13 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="73"/>
       <c r="B58" s="53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C58" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="D58" s="54" t="s">
         <v>524</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>525</v>
       </c>
       <c r="E58" s="55"/>
       <c r="F58" s="54"/>
@@ -6192,10 +6187,10 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
       <c r="B59" s="53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D59" s="54" t="s">
         <v>114</v>
@@ -6206,10 +6201,10 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="73"/>
       <c r="B60" s="53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D60" s="54" t="s">
         <v>114</v>
@@ -6220,10 +6215,10 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="73"/>
       <c r="B61" s="53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D61" s="54"/>
       <c r="E61" s="55"/>
@@ -6232,17 +6227,17 @@
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="73"/>
       <c r="B62" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E62" s="55"/>
       <c r="F62" s="54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6284,33 +6279,33 @@
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="59" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D65" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E65" s="61"/>
       <c r="F65" s="60" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
       <c r="B66" s="59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D66" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="61"/>
       <c r="F66" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6420,7 +6415,7 @@
         <v>445</v>
       </c>
       <c r="D73" s="59" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E73" s="61"/>
       <c r="F73" s="60" t="s">
@@ -6484,14 +6479,14 @@
         <v>444</v>
       </c>
       <c r="D77" s="59" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E77" s="61"/>
       <c r="F77" s="60" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="72"/>
       <c r="B78" s="59" t="s">
         <v>495</v>
@@ -6500,7 +6495,7 @@
         <v>496</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="E78" s="61"/>
       <c r="F78" s="60" t="s">
@@ -6814,23 +6809,23 @@
         <v>452</v>
       </c>
       <c r="D98" s="59" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="60" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C99" s="60" t="s">
         <v>496</v>
       </c>
       <c r="D99" s="60" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="E99" s="61"/>
       <c r="F99" s="60" t="s">
@@ -7064,33 +7059,33 @@
     <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="72"/>
       <c r="B115" s="59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C115" s="60" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D115" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E115" s="61"/>
       <c r="F115" s="60" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="72"/>
       <c r="B116" s="59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C116" s="60" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D116" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E116" s="61"/>
       <c r="F116" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7246,23 +7241,23 @@
         <v>454</v>
       </c>
       <c r="D127" s="59" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E127" s="61"/>
       <c r="F127" s="60" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="72"/>
       <c r="B128" s="59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C128" s="60" t="s">
         <v>496</v>
       </c>
       <c r="D128" s="60" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="E128" s="61"/>
       <c r="F128" s="60" t="s">
@@ -7548,23 +7543,23 @@
         <v>458</v>
       </c>
       <c r="D148" s="59" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E148" s="61"/>
       <c r="F148" s="60" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="72"/>
       <c r="B149" s="59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C149" s="60" t="s">
         <v>496</v>
       </c>
       <c r="D149" s="60" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="E149" s="61"/>
       <c r="F149" s="60" t="s">
@@ -7860,53 +7855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8148,31 +8096,72 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -8188,20 +8177,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C90198-535E-43AC-AD6E-C21818A7245E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF73109C-F8EF-42D1-A7A8-EDDCDD5B9241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
@@ -1940,12 +1940,6 @@
     <t>1 = Inside Enterprise; 2 = External</t>
   </si>
   <si>
-    <t>Length of training, lower limit</t>
-  </si>
-  <si>
-    <t>Length of training, upper limit</t>
-  </si>
-  <si>
     <t>Field of training</t>
   </si>
   <si>
@@ -2084,6 +2078,12 @@
   </si>
   <si>
     <t>1 "Low skill" 2 "Medium skill" 3 "High skill"</t>
+  </si>
+  <si>
+    <t>Length of training in months, lower limit</t>
+  </si>
+  <si>
+    <t>Length of training in months, upper limit</t>
   </si>
 </sst>
 </file>
@@ -5260,8 +5260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,13 +5365,13 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
@@ -5379,13 +5379,13 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
@@ -5393,13 +5393,13 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -5937,13 +5937,13 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>533</v>
-      </c>
       <c r="D43" s="39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="41" t="s">
@@ -5959,7 +5959,7 @@
         <v>479</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="41"/>
@@ -6115,27 +6115,27 @@
         <v>124</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>126</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="72"/>
       <c r="B55" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="33"/>
       <c r="F55" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,7 +6190,7 @@
         <v>517</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="D59" s="54" t="s">
         <v>114</v>
@@ -6204,7 +6204,7 @@
         <v>518</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="D60" s="54" t="s">
         <v>114</v>
@@ -6218,7 +6218,7 @@
         <v>519</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D61" s="54"/>
       <c r="E61" s="55"/>
@@ -6230,14 +6230,14 @@
         <v>520</v>
       </c>
       <c r="C62" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="D62" s="54" t="s">
         <v>528</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>530</v>
       </c>
       <c r="E62" s="55"/>
       <c r="F62" s="54" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
         <v>445</v>
       </c>
       <c r="D73" s="59" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E73" s="61"/>
       <c r="F73" s="60" t="s">
@@ -6479,11 +6479,11 @@
         <v>444</v>
       </c>
       <c r="D77" s="59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E77" s="61"/>
       <c r="F77" s="60" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6495,7 +6495,7 @@
         <v>496</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E78" s="61"/>
       <c r="F78" s="60" t="s">
@@ -6809,7 +6809,7 @@
         <v>452</v>
       </c>
       <c r="D98" s="59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="60" t="s">
@@ -6825,7 +6825,7 @@
         <v>496</v>
       </c>
       <c r="D99" s="60" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E99" s="61"/>
       <c r="F99" s="60" t="s">
@@ -7241,7 +7241,7 @@
         <v>454</v>
       </c>
       <c r="D127" s="59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E127" s="61"/>
       <c r="F127" s="60" t="s">
@@ -7257,7 +7257,7 @@
         <v>496</v>
       </c>
       <c r="D128" s="60" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E128" s="61"/>
       <c r="F128" s="60" t="s">
@@ -7543,7 +7543,7 @@
         <v>458</v>
       </c>
       <c r="D148" s="59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E148" s="61"/>
       <c r="F148" s="60" t="s">
@@ -7559,7 +7559,7 @@
         <v>496</v>
       </c>
       <c r="D149" s="60" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E149" s="61"/>
       <c r="F149" s="60" t="s">
@@ -7855,6 +7855,53 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8096,54 +8143,47 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8159,44 +8199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>